--- a/Willamette Basin water budget summary 2-22-15.xlsx
+++ b/Willamette Basin water budget summary 2-22-15.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="360" yWindow="330" windowWidth="20835" windowHeight="8220"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Budget summaries" sheetId="1" r:id="rId1"/>
+    <sheet name="Irrigation" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>Precip</t>
   </si>
@@ -91,6 +91,54 @@
   </si>
   <si>
     <t>Simulated Historical (1950 - 2010) Reference scenario</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Simulated Historical 1950-2010 (1.41 cm/y)</t>
+  </si>
+  <si>
+    <t>Ref 2070-2100 (1.09 cm/y)</t>
+  </si>
+  <si>
+    <t>HighClim 2070-2100 (1.20 cm/y)</t>
   </si>
 </sst>
 </file>
@@ -150,6 +198,600 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Irrigation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17837736153288006"/>
+          <c:y val="0.12485625561315891"/>
+          <c:w val="0.77025933191798124"/>
+          <c:h val="0.78065378748639769"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Irrigation!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulated Historical 1950-2010 (1.41 cm/y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Irrigation!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Irrigation!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.33982238424763E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.44187998413274E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8164099854226301E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6562677957528397E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2738526591959902E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13286290746354401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27662438516374399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39232861650763501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33419963632299998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.168603241938661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8542982000875701E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Irrigation!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ref 2070-2100 (1.09 cm/y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Irrigation!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Irrigation!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9021775115105902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0452870423121601E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5902274632938601E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09375806243272E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7515864393896604E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8628921151075302E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.120734214713021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27953436757911698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29610874818310001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.241427529397201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7547664254036499E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6262692077502601E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Irrigation!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HighClim 2070-2100 (1.20 cm/y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Irrigation!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Irrigation!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.3957590000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4399999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4499999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1200000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5876499999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9977854000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16462848199999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31956269500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.315668175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.201251456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7389105000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4107500000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="45699840"/>
+        <c:axId val="45701376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45699840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45701376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45701376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Flux</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>averaged over whole basin (cm/y)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0116005123932886E-2"/>
+              <c:y val="9.0336516301326247E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45699840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18201786210170826"/>
+          <c:y val="9.9250450240682755E-2"/>
+          <c:w val="0.57295889208388195"/>
+          <c:h val="0.35642608687388033"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>298045</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="4105275"/>
+          <a:ext cx="5584420" cy="3371380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,13 +2437,226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.33982238424763E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.9021775115105902E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.3957590000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.44187998413274E-6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.0452870423121601E-6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.4399999999999998E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.8164099854226301E-7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.5902274632938601E-7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.4499999999999998E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.09375806243272E-8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.1200000000000001E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.6562677957528397E-4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.7515864393896604E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.5876499999999996E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.2738526591959902E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.8628921151075302E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.9977854000000006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.13286290746354401</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.120734214713021</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.16462848199999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.27662438516374399</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.27953436757911698</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.31956269500000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.39232861650763501</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.29610874818310001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.315668175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.33419963632299998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.241427529397201</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.201251456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.168603241938661</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.7547664254036499E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.7389105000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.8542982000875701E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.6262692077502601E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.4107500000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <f>SUM(B3:B14)</f>
+        <v>1.4095701701324539</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:D15" si="0">SUM(C3:C14)</f>
+        <v>1.0898442963614676</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1972063281999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>C15/B15</f>
+        <v>0.77317491491683421</v>
+      </c>
+      <c r="C18">
+        <f>D15/B15</f>
+        <v>0.84934141880109537</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Willamette Basin water budget summary 2-22-15.xlsx
+++ b/Willamette Basin water budget summary 2-22-15.xlsx
@@ -230,7 +230,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -590,11 +589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45699840"/>
-        <c:axId val="45701376"/>
+        <c:axId val="145274368"/>
+        <c:axId val="70156288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45699840"/>
+        <c:axId val="145274368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45701376"/>
+        <c:crossAx val="70156288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -621,7 +620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45701376"/>
+        <c:axId val="70156288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45699840"/>
+        <c:crossAx val="145274368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -722,6 +721,121 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10810875" y="609600"/>
+          <a:ext cx="10191750" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10791825" y="4762500"/>
+          <a:ext cx="10191750" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1083,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:O33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,6 +2546,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Willamette Basin water budget summary 2-22-15.xlsx
+++ b/Willamette Basin water budget summary 2-22-15.xlsx
@@ -589,11 +589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145274368"/>
-        <c:axId val="70156288"/>
+        <c:axId val="128696320"/>
+        <c:axId val="128697856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145274368"/>
+        <c:axId val="128696320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70156288"/>
+        <c:crossAx val="128697856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -620,7 +620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70156288"/>
+        <c:axId val="128697856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145274368"/>
+        <c:crossAx val="128696320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1195,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O36"/>
+  <dimension ref="A2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,6 +2544,71 @@
         <v>2.9381187190000002</v>
       </c>
     </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1">
+        <f>D28-D36-D32-D30-D29</f>
+        <v>7.1647144529999984</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" ref="E38:O38" si="0">E28-E36-E32-E30-E29</f>
+        <v>12.680443746</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7676039969999993</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.28469918699999996</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60946453699999892</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5092733900000006</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.488388967000001</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.2051209079999996</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.692755461</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.0201018929999996</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.1432940800000004</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32187515599999966</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
